--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_feature_descriptives.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_feature_descriptives.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,62 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std. dev.</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>skewness</t>
-  </si>
-  <si>
-    <t>kurtosis</t>
-  </si>
-  <si>
-    <t>Correlation</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>FEATURE1</t>
-  </si>
-  <si>
-    <t>FEATURE2</t>
-  </si>
-  <si>
-    <t>FEATURE3</t>
-  </si>
-  <si>
-    <t>FEATURE4</t>
-  </si>
-  <si>
-    <t>FEATURE5</t>
-  </si>
-  <si>
-    <t>FEATURE6</t>
-  </si>
-  <si>
-    <t>FEATURE7</t>
-  </si>
-  <si>
-    <t>FEATURE8</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -106,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,231 +433,263 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std. dev.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kurtosis</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FEATURE1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>5.218315541739036</v>
+        <v>5.218315541739041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5232330811206759</v>
+        <v>0.5232330811206761</v>
       </c>
       <c r="D2" t="n">
         <v>3.171619158835189</v>
       </c>
       <c r="E2" t="n">
-        <v>6.621917167022832</v>
+        <v>6.621917167022833</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4394715056267102</v>
+        <v>-0.4394715056267354</v>
       </c>
       <c r="G2" t="n">
-        <v>4.61993794843334</v>
+        <v>4.619937948433339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5763971598016536</v>
+        <v>0.5763971598016537</v>
       </c>
       <c r="I2" t="n">
-        <v>1.324826845047901e-45</v>
+        <v>1.324826845047813e-45</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FEATURE2</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09905531550709015</v>
+        <v>-0.09905531550709003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02908214409877759</v>
+        <v>0.0290821440987776</v>
       </c>
       <c r="D3" t="n">
         <v>-0.252006351341356</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05249744451086048</v>
+        <v>-0.0524974445108604</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.636995038018528</v>
+        <v>-1.636995038018537</v>
       </c>
       <c r="G3" t="n">
-        <v>8.82363881703148</v>
+        <v>8.823638817031485</v>
       </c>
       <c r="H3" t="n">
         <v>0.3375693065583595</v>
       </c>
       <c r="I3" t="n">
-        <v>8.609197168404786e-15</v>
+        <v>8.609197168404677e-15</v>
       </c>
       <c r="J3" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>11</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FEATURE3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1824261753630257</v>
+        <v>-0.1824261753630258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07503966460849208</v>
+        <v>0.0750396646084921</v>
       </c>
       <c r="D4" t="n">
         <v>-0.412356692688007</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05585430033547443</v>
+        <v>-0.0558543003354744</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4211113790996451</v>
+        <v>-0.4211113790996388</v>
       </c>
       <c r="G4" t="n">
         <v>3.022586533916796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5095072288219615</v>
+        <v>0.5095072288219618</v>
       </c>
       <c r="I4" t="n">
-        <v>2.192795814909766e-34</v>
+        <v>2.192795814909622e-34</v>
       </c>
       <c r="J4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>12</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FEATURE4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>-0.1906751556720745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1515297370196447</v>
+        <v>0.1515297370196446</v>
       </c>
       <c r="D5" t="n">
         <v>-0.6293019740034831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002123344626984661</v>
+        <v>0.0021233446269846</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2799449283677885</v>
+        <v>-0.2799449283677879</v>
       </c>
       <c r="G5" t="n">
-        <v>2.426944481131248</v>
+        <v>2.426944481131249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4875287698718363</v>
+        <v>0.4875287698718364</v>
       </c>
       <c r="I5" t="n">
-        <v>3.265468054807193e-31</v>
+        <v>3.265468054807172e-31</v>
       </c>
       <c r="J5" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>13</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FEATURE5</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09655149330236196</v>
+        <v>-0.09655149330236192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04142919523473226</v>
+        <v>0.04142919523473225</v>
       </c>
       <c r="D6" t="n">
         <v>-0.1951925975152189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002238968062144306</v>
+        <v>0.0022389680621443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2077127987045296</v>
+        <v>0.207712798704528</v>
       </c>
       <c r="G6" t="n">
-        <v>3.187532325191205</v>
+        <v>3.187532325191204</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3295421731935063</v>
+        <v>0.3295421731935065</v>
       </c>
       <c r="I6" t="n">
-        <v>3.950563668677482e-14</v>
+        <v>3.950563668677535e-14</v>
       </c>
       <c r="J6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>14</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FEATURE6</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>4.448370880142472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3000200601877394</v>
+        <v>0.3000200601877395</v>
       </c>
       <c r="D7" t="n">
         <v>3.212582126186822</v>
       </c>
       <c r="E7" t="n">
-        <v>5.143992434648593</v>
+        <v>5.143992434648594</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8041265479251687</v>
+        <v>-0.8041265479251765</v>
       </c>
       <c r="G7" t="n">
-        <v>4.800149080423386</v>
+        <v>4.800149080423388</v>
       </c>
       <c r="H7" t="n">
         <v>0.2532938457456909</v>
       </c>
       <c r="I7" t="n">
-        <v>9.270001490895465e-09</v>
+        <v>9.270001490895476e-09</v>
       </c>
       <c r="J7" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>15</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FEATURE7</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>10.668</v>
@@ -661,7 +704,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01200231832859562</v>
+        <v>-0.01200231832859567</v>
       </c>
       <c r="G8" t="n">
         <v>1.845091612665477</v>
@@ -670,18 +713,20 @@
         <v>-0.0691282701081876</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1226529257875543</v>
+        <v>0.1226529257875521</v>
       </c>
       <c r="J8" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>16</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FEATURE8</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-8484.539584319544</v>
+        <v>-8484.539584319547</v>
       </c>
       <c r="C9" t="n">
         <v>2530.851135611023</v>
@@ -693,7 +738,7 @@
         <v>-2680.403101934297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0359165803828767</v>
+        <v>0.03591658038288097</v>
       </c>
       <c r="G9" t="n">
         <v>2.070729442950805</v>
@@ -702,13 +747,13 @@
         <v>-0.1054866184569823</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01830278884942438</v>
+        <v>0.0183027888494246</v>
       </c>
       <c r="J9" t="n">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_feature_descriptives.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_feature_descriptives.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,62 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std. dev.</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FEATURE1</t>
+  </si>
+  <si>
+    <t>FEATURE2</t>
+  </si>
+  <si>
+    <t>FEATURE3</t>
+  </si>
+  <si>
+    <t>FEATURE4</t>
+  </si>
+  <si>
+    <t>FEATURE5</t>
+  </si>
+  <si>
+    <t>FEATURE6</t>
+  </si>
+  <si>
+    <t>FEATURE7</t>
+  </si>
+  <si>
+    <t>FEATURE8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +106,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,263 +422,231 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std. dev.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FEATURE1</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5.218315541739041</v>
+        <v>5.218315541739036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5232330811206761</v>
+        <v>0.5232330811206759</v>
       </c>
       <c r="D2" t="n">
         <v>3.171619158835189</v>
       </c>
       <c r="E2" t="n">
-        <v>6.621917167022833</v>
+        <v>6.621917167022832</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4394715056267354</v>
+        <v>-0.4394715056267102</v>
       </c>
       <c r="G2" t="n">
-        <v>4.619937948433339</v>
+        <v>4.61993794843334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5763971598016537</v>
+        <v>0.5763971598016536</v>
       </c>
       <c r="I2" t="n">
-        <v>1.324826845047813e-45</v>
+        <v>1.324826845047901e-45</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FEATURE2</t>
-        </is>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.09905531550709003</v>
+        <v>-0.09905531550709015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0290821440987776</v>
+        <v>0.02908214409877759</v>
       </c>
       <c r="D3" t="n">
         <v>-0.252006351341356</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0524974445108604</v>
+        <v>-0.05249744451086048</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.636995038018537</v>
+        <v>-1.636995038018528</v>
       </c>
       <c r="G3" t="n">
-        <v>8.823638817031485</v>
+        <v>8.82363881703148</v>
       </c>
       <c r="H3" t="n">
         <v>0.3375693065583595</v>
       </c>
       <c r="I3" t="n">
-        <v>8.609197168404677e-15</v>
+        <v>8.609197168404786e-15</v>
       </c>
       <c r="J3" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FEATURE3</t>
-        </is>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1824261753630258</v>
+        <v>-0.1824261753630257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0750396646084921</v>
+        <v>0.07503966460849208</v>
       </c>
       <c r="D4" t="n">
         <v>-0.412356692688007</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0558543003354744</v>
+        <v>-0.05585430033547443</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4211113790996388</v>
+        <v>-0.4211113790996451</v>
       </c>
       <c r="G4" t="n">
         <v>3.022586533916796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5095072288219618</v>
+        <v>0.5095072288219615</v>
       </c>
       <c r="I4" t="n">
-        <v>2.192795814909622e-34</v>
+        <v>2.192795814909766e-34</v>
       </c>
       <c r="J4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FEATURE4</t>
-        </is>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>-0.1906751556720745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1515297370196446</v>
+        <v>0.1515297370196447</v>
       </c>
       <c r="D5" t="n">
         <v>-0.6293019740034831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0021233446269846</v>
+        <v>0.002123344626984661</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2799449283677879</v>
+        <v>-0.2799449283677885</v>
       </c>
       <c r="G5" t="n">
-        <v>2.426944481131249</v>
+        <v>2.426944481131248</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4875287698718364</v>
+        <v>0.4875287698718363</v>
       </c>
       <c r="I5" t="n">
-        <v>3.265468054807172e-31</v>
+        <v>3.265468054807193e-31</v>
       </c>
       <c r="J5" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FEATURE5</t>
-        </is>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.09655149330236192</v>
+        <v>-0.09655149330236196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04142919523473225</v>
+        <v>0.04142919523473226</v>
       </c>
       <c r="D6" t="n">
         <v>-0.1951925975152189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0022389680621443</v>
+        <v>0.002238968062144306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.207712798704528</v>
+        <v>0.2077127987045296</v>
       </c>
       <c r="G6" t="n">
-        <v>3.187532325191204</v>
+        <v>3.187532325191205</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3295421731935065</v>
+        <v>0.3295421731935063</v>
       </c>
       <c r="I6" t="n">
-        <v>3.950563668677535e-14</v>
+        <v>3.950563668677482e-14</v>
       </c>
       <c r="J6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FEATURE6</t>
-        </is>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>4.448370880142472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3000200601877395</v>
+        <v>0.3000200601877394</v>
       </c>
       <c r="D7" t="n">
         <v>3.212582126186822</v>
       </c>
       <c r="E7" t="n">
-        <v>5.143992434648594</v>
+        <v>5.143992434648593</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8041265479251765</v>
+        <v>-0.8041265479251687</v>
       </c>
       <c r="G7" t="n">
-        <v>4.800149080423388</v>
+        <v>4.800149080423386</v>
       </c>
       <c r="H7" t="n">
         <v>0.2532938457456909</v>
       </c>
       <c r="I7" t="n">
-        <v>9.270001490895476e-09</v>
+        <v>9.270001490895465e-09</v>
       </c>
       <c r="J7" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FEATURE7</t>
-        </is>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>10.668</v>
@@ -704,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01200231832859567</v>
+        <v>-0.01200231832859562</v>
       </c>
       <c r="G8" t="n">
         <v>1.845091612665477</v>
@@ -713,20 +670,18 @@
         <v>-0.0691282701081876</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1226529257875521</v>
+        <v>0.1226529257875543</v>
       </c>
       <c r="J8" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FEATURE8</t>
-        </is>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>-8484.539584319547</v>
+        <v>-8484.539584319544</v>
       </c>
       <c r="C9" t="n">
         <v>2530.851135611023</v>
@@ -738,7 +693,7 @@
         <v>-2680.403101934297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03591658038288097</v>
+        <v>0.0359165803828767</v>
       </c>
       <c r="G9" t="n">
         <v>2.070729442950805</v>
@@ -747,13 +702,13 @@
         <v>-0.1054866184569823</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0183027888494246</v>
+        <v>0.01830278884942438</v>
       </c>
       <c r="J9" t="n">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>